--- a/Data_update/config_path/data_update_path_config.xlsx
+++ b/Data_update/config_path/data_update_path_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sub_folder" sheetId="2" r:id="rId1"/>
@@ -690,7 +690,7 @@
     <t>D:\OneDrive\Data_Original</t>
   </si>
   <si>
-    <t>Data_prepared_new</t>
+    <t>Data_prepared</t>
   </si>
   <si>
     <t>config</t>
@@ -715,14 +715,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -752,19 +745,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1237,161 +1217,153 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1714,7 +1686,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A31" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1850,7 +1822,7 @@
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1869,10 +1841,10 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1891,24 +1863,24 @@
       </c>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:3">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2087,7 +2059,7 @@
       <c r="B33" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2125,24 +2097,24 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" spans="1:3">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2175,7 +2147,7 @@
       <c r="B41" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2186,161 +2158,161 @@
       <c r="B42" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" s="4" customFormat="1" spans="1:3">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="44" s="4" customFormat="1" spans="1:3">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="45" s="4" customFormat="1" spans="1:3">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="46" s="4" customFormat="1" spans="1:3">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="47" s="4" customFormat="1" spans="1:3">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="48" s="4" customFormat="1" spans="1:3">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="49" s="4" customFormat="1" spans="1:3">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="50" s="4" customFormat="1" spans="1:3">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="51" s="4" customFormat="1" spans="1:3">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="52" s="4" customFormat="1" spans="1:3">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" s="4" customFormat="1" spans="1:3">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="54" s="4" customFormat="1" spans="1:3">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="55" s="4" customFormat="1" spans="1:3">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="56" s="4" customFormat="1" spans="1:3">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2359,7 +2331,7 @@
       <c r="A58" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="9" t="s">
         <v>117</v>
       </c>
       <c r="C58" s="5" t="s">
@@ -2554,340 +2526,340 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C76" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="77" ht="20.25" customHeight="1" spans="1:3">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C77" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="5" t="s">
         <v>157</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="11" t="s">
+      <c r="A79" s="5" t="s">
         <v>159</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C79" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C82" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="11" t="s">
+      <c r="A83" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C84" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="11" t="s">
+      <c r="A87" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C87" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="B88" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C88" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="11" t="s">
+      <c r="A89" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B89" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C89" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B90" s="13" t="s">
+      <c r="B90" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C90" s="14" t="s">
+      <c r="C90" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="14" t="s">
+      <c r="A91" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B91" s="13" t="s">
+      <c r="B91" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C91" s="14" t="s">
+      <c r="C91" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="11" t="s">
+      <c r="A92" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B92" s="11" t="s">
+      <c r="B92" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C92" s="14" t="s">
+      <c r="C92" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B93" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C93" s="14" t="s">
+      <c r="C93" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="11" t="s">
+      <c r="A94" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="B94" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C94" s="14" t="s">
+      <c r="C94" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="11" t="s">
+      <c r="A95" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="B95" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C95" s="14" t="s">
+      <c r="C95" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="11" t="s">
+      <c r="A96" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C96" s="14" t="s">
+      <c r="C96" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="11" t="s">
+      <c r="A97" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C97" s="14" t="s">
+      <c r="C97" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="11" t="s">
+      <c r="A98" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C98" s="14" t="s">
+      <c r="C98" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="11" t="s">
+      <c r="A99" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B99" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C99" s="14" t="s">
+      <c r="C99" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="11" t="s">
+      <c r="A100" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B100" s="11" t="s">
+      <c r="B100" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C100" s="14" t="s">
+      <c r="C100" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="11" t="s">
+      <c r="A101" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="B101" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C101" s="14" t="s">
+      <c r="C101" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="11" t="s">
+      <c r="A102" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C102" s="14" t="s">
+      <c r="C102" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="11" t="s">
+      <c r="A103" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B103" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C103" s="14" t="s">
+      <c r="C103" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="11" t="s">
+      <c r="A104" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B104" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C104" s="14" t="s">
+      <c r="C104" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="11" t="s">
+      <c r="A105" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C105" s="14" t="s">
+      <c r="C105" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="11" t="s">
+      <c r="A106" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="B106" s="5" t="s">
         <v>214</v>
       </c>
       <c r="C106" t="s">
@@ -2909,8 +2881,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="3"/>

--- a/Data_update/config_path/data_update_path_config.xlsx
+++ b/Data_update/config_path/data_update_path_config.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_new\Data_update\config_path\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62412D80-AEDA-4E44-A523-B2F53AB0E842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
+    <workbookView xWindow="-360" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sub_folder" sheetId="2" r:id="rId1"/>
@@ -690,9 +696,6 @@
     <t>D:\OneDrive\Data_Original</t>
   </si>
   <si>
-    <t>Data_prepared</t>
-  </si>
-  <si>
     <t>config</t>
   </si>
   <si>
@@ -703,19 +706,17 @@
   </si>
   <si>
     <t>OneDrive</t>
+  </si>
+  <si>
+    <t>Data_prepared_new</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -755,345 +756,36 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1101,256 +793,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1363,64 +812,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1678,1188 +1084,1189 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="49.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="27.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="49.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:3">
-      <c r="A4" s="6" t="s">
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:3">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:3" s="1" customFormat="1">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:3">
-      <c r="A6" s="6" t="s">
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1">
+      <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:3">
-      <c r="A7" s="6" t="s">
+      <c r="C6" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1">
+      <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="1:3">
-      <c r="A8" s="6" t="s">
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="1:3">
-      <c r="A9" s="6" t="s">
+      <c r="C8" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="1" customFormat="1">
+      <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="1:3">
-      <c r="A10" s="6" t="s">
+      <c r="C9" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="1" customFormat="1">
+      <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:3">
-      <c r="A11" s="6" t="s">
+      <c r="C10" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1">
+      <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="1:3">
-      <c r="A16" s="7" t="s">
+      <c r="C15" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="1" customFormat="1">
+      <c r="A16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="1:3">
-      <c r="A17" s="7" t="s">
+      <c r="C16" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="1" customFormat="1">
+      <c r="A17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" s="3" customFormat="1" spans="1:7">
-      <c r="A18" s="6" t="s">
+      <c r="C17" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1">
+      <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="C18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:3">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:7" s="1" customFormat="1">
+      <c r="A19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" s="2" customFormat="1" spans="1:3">
-      <c r="A20" s="6" t="s">
+      <c r="C19" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="1" customFormat="1">
+      <c r="A20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="6" t="s">
+      <c r="C20" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" spans="1:3">
-      <c r="A22" s="6" t="s">
+      <c r="C21" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1">
+      <c r="A22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" s="2" customFormat="1" spans="1:3">
-      <c r="A23" s="6" t="s">
+      <c r="C22" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="1" customFormat="1">
+      <c r="A23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="6" t="s">
+      <c r="C23" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" s="2" customFormat="1" spans="1:3">
-      <c r="A25" s="6" t="s">
+      <c r="C24" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="1" customFormat="1">
+      <c r="A25" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="1" spans="1:3">
-      <c r="A26" s="6" t="s">
+      <c r="C25" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="1" customFormat="1">
+      <c r="A26" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="6" t="s">
+      <c r="C26" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="6" t="s">
+      <c r="C27" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="6" t="s">
+      <c r="C28" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="6" t="s">
+      <c r="C29" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:7">
+      <c r="A31" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="6" t="s">
+      <c r="C31" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" s="2" customFormat="1" spans="1:3">
-      <c r="A38" s="8" t="s">
+      <c r="C37" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="1" customFormat="1">
+      <c r="A38" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" spans="1:3">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:3" s="1" customFormat="1">
+      <c r="A40" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" spans="1:3">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:3" s="1" customFormat="1">
+      <c r="A41" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" s="4" customFormat="1" spans="1:3">
-      <c r="A43" s="8" t="s">
+      <c r="C42" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="3" customFormat="1">
+      <c r="A43" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" s="4" customFormat="1" spans="1:3">
-      <c r="A44" s="8" t="s">
+      <c r="C43" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="3" customFormat="1">
+      <c r="A44" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" s="4" customFormat="1" spans="1:3">
-      <c r="A45" s="8" t="s">
+      <c r="C44" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="3" customFormat="1">
+      <c r="A45" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" s="4" customFormat="1" spans="1:3">
-      <c r="A46" s="8" t="s">
+      <c r="C45" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="3" customFormat="1">
+      <c r="A46" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" s="4" customFormat="1" spans="1:3">
-      <c r="A47" s="8" t="s">
+      <c r="C46" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="3" customFormat="1">
+      <c r="A47" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" s="4" customFormat="1" spans="1:3">
-      <c r="A48" s="8" t="s">
+      <c r="C47" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="3" customFormat="1">
+      <c r="A48" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" s="4" customFormat="1" spans="1:3">
-      <c r="A49" s="8" t="s">
+      <c r="C48" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="3" customFormat="1">
+      <c r="A49" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" s="4" customFormat="1" spans="1:3">
-      <c r="A50" s="8" t="s">
+      <c r="C49" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="3" customFormat="1">
+      <c r="A50" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" s="4" customFormat="1" spans="1:3">
-      <c r="A51" s="8" t="s">
+      <c r="C50" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="3" customFormat="1">
+      <c r="A51" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" s="4" customFormat="1" spans="1:3">
-      <c r="A52" s="8" t="s">
+      <c r="C51" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="3" customFormat="1">
+      <c r="A52" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" s="4" customFormat="1" spans="1:3">
-      <c r="A53" s="8" t="s">
+      <c r="C52" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="3" customFormat="1">
+      <c r="A53" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" s="4" customFormat="1" spans="1:3">
-      <c r="A54" s="8" t="s">
+      <c r="C53" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="3" customFormat="1">
+      <c r="A54" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" s="4" customFormat="1" spans="1:3">
-      <c r="A55" s="8" t="s">
+      <c r="C54" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="3" customFormat="1">
+      <c r="A55" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" s="4" customFormat="1" spans="1:3">
-      <c r="A56" s="8" t="s">
+      <c r="C55" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="3" customFormat="1">
+      <c r="A56" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C76" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" ht="20.25" customHeight="1" spans="1:3">
-      <c r="A77" s="10" t="s">
+      <c r="C76" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A77" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C91" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C92" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="C93" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C94" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C95" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C96" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C97" s="10" t="s">
+      <c r="C97" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="C98" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C99" s="10" t="s">
+      <c r="C99" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C100" s="10" t="s">
+      <c r="C100" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="C101" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C102" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C103" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C104" s="10" t="s">
+      <c r="C104" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C105" s="10" t="s">
+      <c r="C105" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="4" t="s">
         <v>214</v>
       </c>
       <c r="C106" t="s">
@@ -2867,25 +2274,23 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C106" etc:filterBottomFollowUsedRange="0">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:C106" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="27.375" customWidth="1"/>
     <col min="2" max="2" width="56.375" customWidth="1"/>
@@ -2924,8 +2329,8 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>219</v>
+      <c r="B3" s="10" t="s">
+        <v>223</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2939,13 +2344,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2953,7 +2358,7 @@
         <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2966,8 +2371,8 @@
       <c r="A6" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>222</v>
+      <c r="B6" t="s">
+        <v>221</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2981,7 +2386,7 @@
         <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2991,7 +2396,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Data_update/config_path/data_update_path_config.xlsx
+++ b/Data_update/config_path/data_update_path_config.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_new\Data_update\config_path\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62412D80-AEDA-4E44-A523-B2F53AB0E842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-360" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="sub_folder" sheetId="2" r:id="rId1"/>
     <sheet name="main_folder" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sub_folder!$A$1:$C$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sub_folder!$A$1:$C$107</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="226">
   <si>
     <t>data_type</t>
   </si>
@@ -381,6 +375,12 @@
     <t>data_tushare\convertible_bond_change</t>
   </si>
   <si>
+    <t>inputpath_gms</t>
+  </si>
+  <si>
+    <t>score\rr_score\金砖_AW_PORT.xlsx</t>
+  </si>
+  <si>
     <t>output_cbond</t>
   </si>
   <si>
@@ -696,6 +696,9 @@
     <t>D:\OneDrive\Data_Original</t>
   </si>
   <si>
+    <t>Data_prepared</t>
+  </si>
+  <si>
     <t>config</t>
   </si>
   <si>
@@ -706,17 +709,19 @@
   </si>
   <si>
     <t>OneDrive</t>
-  </si>
-  <si>
-    <t>Data_prepared_new</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -756,36 +761,345 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -793,13 +1107,256 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -812,21 +1369,64 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1084,818 +1684,817 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="49.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="49.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1">
-      <c r="A4" s="5" t="s">
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:3">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="1" customFormat="1">
-      <c r="A5" s="5" t="s">
+    <row r="5" s="2" customFormat="1" spans="1:3">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1">
-      <c r="A6" s="5" t="s">
+      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:3">
+      <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="1" customFormat="1">
-      <c r="A7" s="5" t="s">
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:3">
+      <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="1" customFormat="1">
-      <c r="A8" s="5" t="s">
+      <c r="C7" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:3">
+      <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="1" customFormat="1">
-      <c r="A9" s="5" t="s">
+      <c r="C8" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:3">
+      <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="1" customFormat="1">
-      <c r="A10" s="5" t="s">
+      <c r="C9" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:3">
+      <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="1" customFormat="1">
-      <c r="A11" s="5" t="s">
+      <c r="C10" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:3">
+      <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="1" customFormat="1">
-      <c r="A16" s="6" t="s">
+      <c r="C15" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:3">
+      <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="1" customFormat="1">
-      <c r="A17" s="6" t="s">
+      <c r="C16" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:3">
+      <c r="A17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="2" customFormat="1">
-      <c r="A18" s="5" t="s">
+      <c r="C17" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="1:7">
+      <c r="A18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="C18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="1" customFormat="1">
-      <c r="A19" s="5" t="s">
+    <row r="19" s="2" customFormat="1" spans="1:3">
+      <c r="A19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="1" customFormat="1">
-      <c r="A20" s="5" t="s">
+      <c r="C19" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:3">
+      <c r="A20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="5" t="s">
+      <c r="C20" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="1" customFormat="1">
-      <c r="A22" s="5" t="s">
+      <c r="C21" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:3">
+      <c r="A22" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="1" customFormat="1">
-      <c r="A23" s="5" t="s">
+      <c r="C22" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:3">
+      <c r="A23" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="5" t="s">
+      <c r="C23" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="1" customFormat="1">
-      <c r="A25" s="5" t="s">
+      <c r="C24" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:3">
+      <c r="A25" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="1" customFormat="1">
-      <c r="A26" s="5" t="s">
+      <c r="C25" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="1:3">
+      <c r="A26" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="5" t="s">
+      <c r="C26" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="5" t="s">
+      <c r="C27" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="5" t="s">
+      <c r="C28" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="5" t="s">
+      <c r="C29" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="5" t="s">
+      <c r="C31" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="1" customFormat="1">
-      <c r="A38" s="7" t="s">
+      <c r="C37" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="1" spans="1:3">
+      <c r="A38" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="1" customFormat="1">
-      <c r="A40" s="4" t="s">
+    <row r="40" s="2" customFormat="1" spans="1:3">
+      <c r="A40" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="1" customFormat="1">
-      <c r="A41" s="4" t="s">
+    <row r="41" s="2" customFormat="1" spans="1:3">
+      <c r="A41" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="3" customFormat="1">
-      <c r="A43" s="7" t="s">
+      <c r="C42" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" s="4" customFormat="1" spans="1:3">
+      <c r="A43" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="3" customFormat="1">
-      <c r="A44" s="7" t="s">
+      <c r="C43" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" s="4" customFormat="1" spans="1:3">
+      <c r="A44" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="3" customFormat="1">
-      <c r="A45" s="7" t="s">
+      <c r="C44" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" s="4" customFormat="1" spans="1:3">
+      <c r="A45" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="3" customFormat="1">
-      <c r="A46" s="7" t="s">
+      <c r="C45" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" s="4" customFormat="1" spans="1:3">
+      <c r="A46" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="3" customFormat="1">
-      <c r="A47" s="7" t="s">
+      <c r="C46" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" s="4" customFormat="1" spans="1:3">
+      <c r="A47" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="3" customFormat="1">
-      <c r="A48" s="7" t="s">
+      <c r="C47" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" s="4" customFormat="1" spans="1:3">
+      <c r="A48" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" s="3" customFormat="1">
-      <c r="A49" s="7" t="s">
+      <c r="C48" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" s="4" customFormat="1" spans="1:3">
+      <c r="A49" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" s="3" customFormat="1">
-      <c r="A50" s="7" t="s">
+      <c r="C49" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" s="4" customFormat="1" spans="1:3">
+      <c r="A50" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" s="3" customFormat="1">
-      <c r="A51" s="7" t="s">
+      <c r="C50" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" s="4" customFormat="1" spans="1:3">
+      <c r="A51" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" s="3" customFormat="1">
-      <c r="A52" s="7" t="s">
+      <c r="C51" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" s="4" customFormat="1" spans="1:3">
+      <c r="A52" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" s="3" customFormat="1">
-      <c r="A53" s="7" t="s">
+      <c r="C52" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" s="4" customFormat="1" spans="1:3">
+      <c r="A53" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" s="3" customFormat="1">
-      <c r="A54" s="7" t="s">
+      <c r="C53" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" s="4" customFormat="1" spans="1:3">
+      <c r="A54" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" s="3" customFormat="1">
-      <c r="A55" s="7" t="s">
+      <c r="C54" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" s="4" customFormat="1" spans="1:3">
+      <c r="A55" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" s="3" customFormat="1">
-      <c r="A56" s="7" t="s">
+      <c r="C55" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" s="4" customFormat="1" spans="1:3">
+      <c r="A56" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="4" t="s">
+      <c r="C56" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" s="4" customFormat="1" spans="1:3">
+      <c r="A57" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>7</v>
+      <c r="C57" s="8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="5" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="4" t="s">
+      <c r="B59" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="C59" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="5" t="s">
         <v>125</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="5" t="s">
         <v>139</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1903,394 +2502,407 @@
       <c r="A73" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C76" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A77" s="9" t="s">
+      <c r="C76" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C77" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="4" t="s">
+      <c r="C77" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A78" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C90" s="9" t="s">
-        <v>7</v>
+      <c r="C90" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C91" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C92" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="C93" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C94" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C95" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="C96" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="C97" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C99" s="9" t="s">
+      <c r="C99" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C100" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C101" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C102" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C103" s="9" t="s">
+      <c r="C103" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C104" s="9" t="s">
+      <c r="C104" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C105" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C107" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C106" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C107" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="27.375" customWidth="1"/>
     <col min="2" max="2" width="56.375" customWidth="1"/>
@@ -2302,13 +2914,13 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2316,7 +2928,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2329,8 +2941,8 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>223</v>
+      <c r="B3" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2344,13 +2956,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2358,7 +2970,7 @@
         <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2371,8 +2983,8 @@
       <c r="A6" t="s">
         <v>72</v>
       </c>
-      <c r="B6" t="s">
-        <v>221</v>
+      <c r="B6" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2383,10 +2995,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2396,7 +3008,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Data_update/config_path/data_update_path_config.xlsx
+++ b/Data_update/config_path/data_update_path_config.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_new\Data_update\config_path\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16017FC6-F1E4-4238-8019-F91C1B6A068B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView xWindow="-360" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sub_folder" sheetId="2" r:id="rId1"/>
@@ -576,12 +582,6 @@
     <t>data_wind\us_data\UsDollar</t>
   </si>
   <si>
-    <t>input_USIndex_wind</t>
-  </si>
-  <si>
-    <t>data_wind\us_data\UsIndex</t>
-  </si>
-  <si>
     <t>output_nlb</t>
   </si>
   <si>
@@ -660,12 +660,6 @@
     <t>data_us\UsDollar</t>
   </si>
   <si>
-    <t>output_USIndex</t>
-  </si>
-  <si>
-    <t>data_us\UsIndex</t>
-  </si>
-  <si>
     <t>output_futureDifference</t>
   </si>
   <si>
@@ -693,9 +687,6 @@
     <t>MPON</t>
   </si>
   <si>
-    <t>D:\OneDrive\Data_Original</t>
-  </si>
-  <si>
     <t>Data_prepared</t>
   </si>
   <si>
@@ -705,23 +696,37 @@
     <t>config_project</t>
   </si>
   <si>
-    <t>onedrive\Portfolio_test</t>
-  </si>
-  <si>
     <t>OneDrive</t>
+  </si>
+  <si>
+    <t>Data_Original</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portfolio</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>input_internationalIndex_tushare</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_tushare\international_index</t>
+  </si>
+  <si>
+    <t>output_intIndex</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_internationalIndex</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -733,6 +738,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -740,6 +746,7 @@
       <sz val="11"/>
       <color theme="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -747,359 +754,55 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1107,256 +810,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1369,64 +829,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1684,1265 +1101,1264 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="49.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="27.08203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="49.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:3">
-      <c r="A4" s="6" t="s">
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:3">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:3">
-      <c r="A6" s="6" t="s">
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:3">
-      <c r="A7" s="6" t="s">
+      <c r="C6" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="1:3">
-      <c r="A8" s="6" t="s">
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="1:3">
-      <c r="A9" s="6" t="s">
+      <c r="C8" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="1:3">
-      <c r="A10" s="6" t="s">
+      <c r="C9" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:3">
-      <c r="A11" s="6" t="s">
+      <c r="C10" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="6" t="s">
+      <c r="C11" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="6" t="s">
+      <c r="C12" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="6" t="s">
+      <c r="C13" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="6" t="s">
+      <c r="C14" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="1:3">
-      <c r="A16" s="7" t="s">
+      <c r="C15" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="1:3">
-      <c r="A17" s="7" t="s">
+      <c r="C16" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" s="3" customFormat="1" spans="1:7">
-      <c r="A18" s="6" t="s">
+      <c r="C17" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="C18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:3">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" s="2" customFormat="1" spans="1:3">
-      <c r="A20" s="6" t="s">
+      <c r="C19" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="6" t="s">
+      <c r="C20" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" spans="1:3">
-      <c r="A22" s="6" t="s">
+      <c r="C21" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" s="2" customFormat="1" spans="1:3">
-      <c r="A23" s="6" t="s">
+      <c r="C22" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="6" t="s">
+      <c r="C23" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" s="2" customFormat="1" spans="1:3">
-      <c r="A25" s="6" t="s">
+      <c r="C24" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="1" spans="1:3">
-      <c r="A26" s="6" t="s">
+      <c r="C25" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="6" t="s">
+      <c r="C26" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="6" t="s">
+      <c r="C27" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="6" t="s">
+      <c r="C28" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="6" t="s">
+      <c r="C29" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="6" t="s">
+      <c r="C31" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="6" t="s">
+      <c r="C32" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="6" t="s">
+      <c r="C33" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="6" t="s">
+      <c r="C35" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="8" t="s">
+      <c r="C36" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" s="2" customFormat="1" spans="1:3">
-      <c r="A38" s="8" t="s">
+      <c r="C37" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="5" t="s">
+      <c r="C38" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" spans="1:3">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" spans="1:3">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="5" t="s">
+      <c r="C41" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" s="4" customFormat="1" spans="1:3">
-      <c r="A43" s="8" t="s">
+      <c r="C42" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" s="4" customFormat="1" spans="1:3">
-      <c r="A44" s="8" t="s">
+      <c r="C43" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" s="4" customFormat="1" spans="1:3">
-      <c r="A45" s="8" t="s">
+      <c r="C44" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" s="4" customFormat="1" spans="1:3">
-      <c r="A46" s="8" t="s">
+      <c r="C45" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" s="4" customFormat="1" spans="1:3">
-      <c r="A47" s="8" t="s">
+      <c r="C46" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" s="4" customFormat="1" spans="1:3">
-      <c r="A48" s="8" t="s">
+      <c r="C47" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" s="4" customFormat="1" spans="1:3">
-      <c r="A49" s="8" t="s">
+      <c r="C48" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" s="4" customFormat="1" spans="1:3">
-      <c r="A50" s="8" t="s">
+      <c r="C49" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" s="4" customFormat="1" spans="1:3">
-      <c r="A51" s="8" t="s">
+      <c r="C50" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" s="4" customFormat="1" spans="1:3">
-      <c r="A52" s="8" t="s">
+      <c r="C51" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" s="4" customFormat="1" spans="1:3">
-      <c r="A53" s="8" t="s">
+      <c r="C52" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" s="4" customFormat="1" spans="1:3">
-      <c r="A54" s="8" t="s">
+      <c r="C53" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" s="4" customFormat="1" spans="1:3">
-      <c r="A55" s="8" t="s">
+      <c r="C54" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" s="4" customFormat="1" spans="1:3">
-      <c r="A56" s="8" t="s">
+      <c r="C55" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" s="4" customFormat="1" spans="1:3">
-      <c r="A57" s="8" t="s">
+      <c r="C56" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C57" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="5" t="s">
+      <c r="C57" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="5" t="s">
+      <c r="C58" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="5" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="5" t="s">
+      <c r="C60" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="5" t="s">
+      <c r="C61" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="5" t="s">
+      <c r="C62" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="5" t="s">
+      <c r="C63" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="5" t="s">
+      <c r="C64" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="5" t="s">
+      <c r="C65" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="5" t="s">
+      <c r="C66" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="5" t="s">
+      <c r="C67" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="5" t="s">
+      <c r="C68" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="5" t="s">
+      <c r="C69" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C70" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="5" t="s">
+      <c r="C70" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="5" t="s">
+      <c r="C71" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C72" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="5" t="s">
+      <c r="C72" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="6" t="s">
+      <c r="C73" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="5" t="s">
+      <c r="C74" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="5" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C76" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="10" t="s">
+      <c r="C76" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C77" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" ht="20.25" customHeight="1" spans="1:3">
-      <c r="A78" s="10" t="s">
+      <c r="C77" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C78" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="5" t="s">
+      <c r="C78" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="5" t="s">
+      <c r="C79" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C80" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="5" t="s">
+      <c r="C80" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="5" t="s">
+      <c r="C81" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="5" t="s">
+      <c r="C82" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C83" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="5" t="s">
+      <c r="C83" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C84" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="5" t="s">
+      <c r="C84" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C85" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="5" t="s">
+      <c r="C85" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C86" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="5" t="s">
+      <c r="C86" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="5" t="s">
+      <c r="C87" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C88" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="5" t="s">
+      <c r="C88" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C89" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="5" t="s">
+      <c r="C89" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B91" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C90" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="10" t="s">
+      <c r="C91" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B92" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C91" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="10" t="s">
+      <c r="C92" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B93" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C92" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="5" t="s">
+      <c r="C93" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B94" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C93" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="5" t="s">
+      <c r="C94" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B95" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C94" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="5" t="s">
+      <c r="C95" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B96" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C95" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="5" t="s">
+      <c r="C96" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B97" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C96" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="5" t="s">
+      <c r="C97" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B98" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C97" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="5" t="s">
+      <c r="C98" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B99" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C98" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="5" t="s">
+      <c r="C99" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B100" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C99" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="5" t="s">
+      <c r="C100" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B101" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C100" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="5" t="s">
+      <c r="C101" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B102" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C101" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="5" t="s">
+      <c r="C102" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B103" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C102" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="5" t="s">
+      <c r="C103" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B105" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C103" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="5" t="s">
+      <c r="C105" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B106" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C104" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="5" t="s">
+      <c r="C106" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B107" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="C107" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C107" etc:filterBottomFollowUsedRange="0">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:C107" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.375" customWidth="1"/>
-    <col min="2" max="2" width="56.375" customWidth="1"/>
-    <col min="3" max="4" width="8.625"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="56.33203125" customWidth="1"/>
+    <col min="3" max="4" width="8.58203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="10" t="s">
         <v>220</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>221</v>
+      <c r="B3" t="s">
+        <v>216</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2951,26 +2367,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C4" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2979,12 +2395,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>224</v>
+      <c r="B6" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2993,12 +2409,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -3008,7 +2424,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Data_update/config_path/data_update_path_config.xlsx
+++ b/Data_update/config_path/data_update_path_config.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_new\Data_update\config_path\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16017FC6-F1E4-4238-8019-F91C1B6A068B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C22DD07-252F-4C46-97A5-894CC80B5916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-360" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sub_folder" sheetId="2" r:id="rId1"/>
     <sheet name="main_folder" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sub_folder!$A$1:$C$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sub_folder!$A$1:$C$108</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="228">
   <si>
     <t>data_type</t>
   </si>
@@ -719,6 +719,14 @@
   </si>
   <si>
     <t>data_internationalIndex</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>input_futuredata_info_tushare</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_tushare\future_info\future_info.csv</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1108,10 +1116,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1632,10 +1640,10 @@
     </row>
     <row r="47" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>94</v>
+        <v>226</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>5</v>
@@ -1643,10 +1651,10 @@
     </row>
     <row r="48" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>5</v>
@@ -1654,32 +1662,32 @@
     </row>
     <row r="49" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>5</v>
@@ -1687,32 +1695,32 @@
     </row>
     <row r="52" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>5</v>
@@ -1720,10 +1728,10 @@
     </row>
     <row r="55" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>5</v>
@@ -1731,10 +1739,10 @@
     </row>
     <row r="56" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>5</v>
@@ -1742,54 +1750,54 @@
     </row>
     <row r="57" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B58" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>7</v>
+      <c r="C58" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>120</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>7</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>7</v>
@@ -1797,10 +1805,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>7</v>
@@ -1808,10 +1816,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>7</v>
@@ -1819,10 +1827,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>7</v>
@@ -1830,10 +1838,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>7</v>
@@ -1841,10 +1849,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>7</v>
@@ -1852,10 +1860,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>7</v>
@@ -1863,10 +1871,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>7</v>
@@ -1874,10 +1882,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>7</v>
@@ -1885,10 +1893,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>7</v>
@@ -1896,10 +1904,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>7</v>
@@ -1907,10 +1915,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>7</v>
@@ -1918,87 +1926,87 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B74" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
+      <c r="C74" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B75" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="C75" s="4" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B77" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="9" t="s">
+      <c r="C77" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B78" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C77" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="9" t="s">
+      <c r="C78" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B79" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C78" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>5</v>
@@ -2006,10 +2014,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>5</v>
@@ -2017,10 +2025,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>5</v>
@@ -2028,10 +2036,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>5</v>
@@ -2039,10 +2047,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>5</v>
@@ -2050,10 +2058,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>5</v>
@@ -2061,10 +2069,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>5</v>
@@ -2072,10 +2080,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>5</v>
@@ -2083,10 +2091,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>5</v>
@@ -2094,54 +2102,54 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B90" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+      <c r="C90" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>7</v>
+      <c r="C91" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B93" s="9" t="s">
         <v>184</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="C93" s="9" t="s">
         <v>7</v>
@@ -2149,10 +2157,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>7</v>
@@ -2160,10 +2168,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C95" s="9" t="s">
         <v>7</v>
@@ -2171,10 +2179,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C96" s="9" t="s">
         <v>7</v>
@@ -2182,10 +2190,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C97" s="9" t="s">
         <v>7</v>
@@ -2193,10 +2201,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C98" s="9" t="s">
         <v>7</v>
@@ -2204,10 +2212,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C99" s="9" t="s">
         <v>7</v>
@@ -2215,10 +2223,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C100" s="9" t="s">
         <v>7</v>
@@ -2226,10 +2234,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C101" s="9" t="s">
         <v>7</v>
@@ -2237,10 +2245,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>7</v>
@@ -2248,10 +2256,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C103" s="9" t="s">
         <v>7</v>
@@ -2259,10 +2267,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="C104" s="9" t="s">
         <v>7</v>
@@ -2270,10 +2278,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="C105" s="9" t="s">
         <v>7</v>
@@ -2281,10 +2289,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C106" s="9" t="s">
         <v>7</v>
@@ -2292,17 +2300,28 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B108" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C108" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C107" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:C108" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Data_update/config_path/data_update_path_config.xlsx
+++ b/Data_update/config_path/data_update_path_config.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_new\Data_update\config_path\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C22DD07-252F-4C46-97A5-894CC80B5916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sub_folder" sheetId="2" r:id="rId1"/>
@@ -321,6 +315,12 @@
     <t>data_future</t>
   </si>
   <si>
+    <t>input_futuredata_info_tushare</t>
+  </si>
+  <si>
+    <t>data_tushare\future_info\future_info.csv</t>
+  </si>
+  <si>
     <t>input_optiondata_wind</t>
   </si>
   <si>
@@ -582,6 +582,12 @@
     <t>data_wind\us_data\UsDollar</t>
   </si>
   <si>
+    <t>input_internationalIndex_tushare</t>
+  </si>
+  <si>
+    <t>data_tushare\international_index</t>
+  </si>
+  <si>
     <t>output_nlb</t>
   </si>
   <si>
@@ -660,6 +666,12 @@
     <t>data_us\UsDollar</t>
   </si>
   <si>
+    <t>output_intIndex</t>
+  </si>
+  <si>
+    <t>data_internationalIndex</t>
+  </si>
+  <si>
     <t>output_futureDifference</t>
   </si>
   <si>
@@ -687,6 +699,9 @@
     <t>MPON</t>
   </si>
   <si>
+    <t>OneDrive\\Data_Original</t>
+  </si>
+  <si>
     <t>Data_prepared</t>
   </si>
   <si>
@@ -696,45 +711,30 @@
     <t>config_project</t>
   </si>
   <si>
+    <t>Portfolio</t>
+  </si>
+  <si>
     <t>OneDrive</t>
-  </si>
-  <si>
-    <t>Data_Original</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Portfolio</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>input_internationalIndex_tushare</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>data_tushare\international_index</t>
-  </si>
-  <si>
-    <t>output_intIndex</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>data_internationalIndex</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>input_futuredata_info_tushare</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>data_tushare\future_info\future_info.csv</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -746,7 +746,6 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -754,7 +753,6 @@
       <sz val="11"/>
       <color theme="9"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -762,55 +760,359 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -818,10 +1120,252 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -829,32 +1373,83 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1109,1261 +1704,1262 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="27.08203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="49.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.0833333333333" style="5" customWidth="1"/>
+    <col min="2" max="2" width="49.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.3333333333333" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:3">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" s="2" customFormat="1" spans="1:3">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:3">
+      <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:3">
+      <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="C7" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:3">
+      <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="C8" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:3">
+      <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="C9" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:3">
+      <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="C10" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:3">
+      <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="C11" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="C12" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="C13" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="C14" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="C15" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:3">
+      <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="C16" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:3">
+      <c r="A17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="C17" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="1:7">
+      <c r="A18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="C18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+    <row r="19" s="2" customFormat="1" spans="1:3">
+      <c r="A19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="C19" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:3">
+      <c r="A20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="C20" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="C21" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:3">
+      <c r="A22" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="C22" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:3">
+      <c r="A23" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="C23" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="C24" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:3">
+      <c r="A25" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="C25" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="1:3">
+      <c r="A26" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="C26" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="C27" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="C28" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="C29" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="C31" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+      <c r="C32" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="C33" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+      <c r="C35" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
+      <c r="C36" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
+      <c r="C37" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="1" spans="1:3">
+      <c r="A38" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+      <c r="C38" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+    <row r="40" s="2" customFormat="1" spans="1:3">
+      <c r="A40" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+    <row r="41" s="2" customFormat="1" spans="1:3">
+      <c r="A41" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+      <c r="C41" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
+      <c r="C42" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" s="4" customFormat="1" spans="1:3">
+      <c r="A43" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
+      <c r="C43" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" s="4" customFormat="1" spans="1:3">
+      <c r="A44" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
+      <c r="C44" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" s="4" customFormat="1" spans="1:3">
+      <c r="A45" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
+      <c r="C45" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" s="4" customFormat="1" spans="1:3">
+      <c r="A46" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="s">
+      <c r="C46" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" s="4" customFormat="1" spans="1:3">
+      <c r="A47" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B47" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="7" t="s">
+      <c r="C47" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" s="4" customFormat="1" spans="1:3">
+      <c r="A48" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B48" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="s">
+      <c r="C48" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" s="4" customFormat="1" spans="1:3">
+      <c r="A49" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B49" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="7" t="s">
+      <c r="C49" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" s="4" customFormat="1" spans="1:3">
+      <c r="A50" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B50" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="7" t="s">
+      <c r="C50" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" s="4" customFormat="1" spans="1:3">
+      <c r="A51" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B51" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="7" t="s">
+      <c r="C51" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" s="4" customFormat="1" spans="1:3">
+      <c r="A52" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B52" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="7" t="s">
+      <c r="C52" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" s="4" customFormat="1" spans="1:3">
+      <c r="A53" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B53" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="7" t="s">
+      <c r="C53" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" s="4" customFormat="1" spans="1:3">
+      <c r="A54" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B54" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="7" t="s">
+      <c r="C54" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" s="4" customFormat="1" spans="1:3">
+      <c r="A55" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B55" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
+      <c r="C55" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" s="4" customFormat="1" spans="1:3">
+      <c r="A56" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B56" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="7" t="s">
+      <c r="C56" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" s="4" customFormat="1" spans="1:3">
+      <c r="A57" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B57" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
+      <c r="C57" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" s="4" customFormat="1" spans="1:3">
+      <c r="A58" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B58" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+      <c r="C58" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B59" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C59" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
+      <c r="B60" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="C60" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B61" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
+      <c r="C61" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B62" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
+      <c r="C62" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B63" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
+      <c r="C63" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B64" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
+      <c r="C64" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B65" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
+      <c r="C65" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B66" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
+      <c r="C66" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B67" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
+      <c r="C67" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B68" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
+      <c r="C68" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B69" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
+      <c r="C69" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B70" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
+      <c r="C70" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B71" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
+      <c r="C71" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B72" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
+      <c r="C72" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B73" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
+      <c r="C73" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B74" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
+      <c r="C74" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B75" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C75" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="9" t="s">
+    <row r="77" spans="1:3">
+      <c r="A77" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B77" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C78" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="9" t="s">
+      <c r="C77" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B78" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C79" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
+      <c r="C78" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A79" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B79" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
+      <c r="C79" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B80" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
+      <c r="C80" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B81" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
+      <c r="C81" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B82" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
+      <c r="C82" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B83" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
+      <c r="C83" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B84" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
+      <c r="C84" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B85" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
+      <c r="C85" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B86" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
+      <c r="C86" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B87" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="s">
+      <c r="C87" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B88" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
+      <c r="C88" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B89" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="9" t="s">
+      <c r="C89" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B90" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C92" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="9" t="s">
+      <c r="C90" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" s="2" customFormat="1" spans="1:3">
+      <c r="A91" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B91" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C93" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
+      <c r="C91" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B92" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="C94" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
+      <c r="C92" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B93" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C95" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
+      <c r="C93" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B94" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C96" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
+      <c r="C94" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B95" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C97" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
+      <c r="C95" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B96" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C98" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="4" t="s">
+      <c r="C96" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B97" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C99" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="4" t="s">
+      <c r="C97" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B98" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C100" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
+      <c r="C98" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B99" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C101" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="s">
+      <c r="C99" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B100" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C102" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="4" t="s">
+      <c r="C100" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B101" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C103" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="4" t="s">
+      <c r="C101" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B102" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C104" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="4" t="s">
+      <c r="C102" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B103" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C106" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="4" t="s">
+      <c r="C103" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B104" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C107" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="4" t="s">
+      <c r="C104" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B105" s="5" t="s">
         <v>212</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>218</v>
       </c>
       <c r="C108" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C108" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C108" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="56.33203125" customWidth="1"/>
-    <col min="3" max="4" width="8.58203125"/>
+    <col min="1" max="1" width="27.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="56.3333333333333" customWidth="1"/>
+    <col min="3" max="4" width="8.58333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>220</v>
+      <c r="B2" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2372,12 +2968,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2386,26 +2982,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C4" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="D4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2414,12 +3010,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>221</v>
+      <c r="B6" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2428,12 +3024,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2443,7 +3039,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Data_update/config_path/data_update_path_config.xlsx
+++ b/Data_update/config_path/data_update_path_config.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_new1\Data_update\config_path\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE75889-0951-417F-8AA2-BF7F8AAD53D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sub_folder" sheetId="2" r:id="rId1"/>
@@ -699,35 +705,32 @@
     <t>MPON</t>
   </si>
   <si>
-    <t>OneDrive\\Data_Original</t>
-  </si>
-  <si>
-    <t>Data_prepared</t>
-  </si>
-  <si>
     <t>config</t>
   </si>
   <si>
     <t>config_project</t>
   </si>
   <si>
-    <t>Portfolio</t>
-  </si>
-  <si>
     <t>OneDrive</t>
+  </si>
+  <si>
+    <t>Data_Original</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_prepared_new</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portfolio_new</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -739,6 +742,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -746,6 +750,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -753,6 +758,7 @@
       <sz val="11"/>
       <color theme="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -760,359 +766,47 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1120,254 +814,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1382,64 +834,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1704,26 +1113,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.0833333333333" style="5" customWidth="1"/>
+    <col min="1" max="1" width="27.125" style="5" customWidth="1"/>
     <col min="2" max="2" width="49.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="17.3333333333333" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1734,7 +1144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1745,7 +1155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1756,7 +1166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:3">
+    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -1767,7 +1177,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:3">
+    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -1778,7 +1188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:3">
+    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1789,7 +1199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:3">
+    <row r="7" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -1800,7 +1210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:3">
+    <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
@@ -1811,7 +1221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:3">
+    <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
@@ -1822,7 +1232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:3">
+    <row r="10" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
@@ -1833,7 +1243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:3">
+    <row r="11" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
@@ -1844,7 +1254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
@@ -1855,7 +1265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -1866,7 +1276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
@@ -1877,7 +1287,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>31</v>
       </c>
@@ -1888,7 +1298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:3">
+    <row r="16" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
@@ -1899,7 +1309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:3">
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>35</v>
       </c>
@@ -1910,7 +1320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" spans="1:7">
+    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>37</v>
       </c>
@@ -1924,7 +1334,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:3">
+    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>40</v>
       </c>
@@ -1935,7 +1345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:3">
+    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>42</v>
       </c>
@@ -1946,7 +1356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>44</v>
       </c>
@@ -1957,7 +1367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:3">
+    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>46</v>
       </c>
@@ -1968,7 +1378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:3">
+    <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>48</v>
       </c>
@@ -1979,7 +1389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>50</v>
       </c>
@@ -1990,7 +1400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" spans="1:3">
+    <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>52</v>
       </c>
@@ -2001,7 +1411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" spans="1:3">
+    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>54</v>
       </c>
@@ -2012,7 +1422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>56</v>
       </c>
@@ -2023,7 +1433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>58</v>
       </c>
@@ -2034,7 +1444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>60</v>
       </c>
@@ -2045,7 +1455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>62</v>
       </c>
@@ -2056,7 +1466,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>65</v>
       </c>
@@ -2067,7 +1477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>67</v>
       </c>
@@ -2078,7 +1488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>69</v>
       </c>
@@ -2089,7 +1499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>70</v>
       </c>
@@ -2100,7 +1510,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>73</v>
       </c>
@@ -2111,7 +1521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>75</v>
       </c>
@@ -2122,7 +1532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>77</v>
       </c>
@@ -2133,7 +1543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="1" spans="1:3">
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>78</v>
       </c>
@@ -2144,7 +1554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>79</v>
       </c>
@@ -2155,7 +1565,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" spans="1:3">
+    <row r="40" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>81</v>
       </c>
@@ -2166,7 +1576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" spans="1:3">
+    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>83</v>
       </c>
@@ -2177,7 +1587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>85</v>
       </c>
@@ -2188,7 +1598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" s="4" customFormat="1" spans="1:3">
+    <row r="43" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>86</v>
       </c>
@@ -2199,7 +1609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" s="4" customFormat="1" spans="1:3">
+    <row r="44" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>88</v>
       </c>
@@ -2210,7 +1620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" s="4" customFormat="1" spans="1:3">
+    <row r="45" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>90</v>
       </c>
@@ -2221,7 +1631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" s="4" customFormat="1" spans="1:3">
+    <row r="46" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>92</v>
       </c>
@@ -2232,7 +1642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" s="4" customFormat="1" spans="1:3">
+    <row r="47" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>94</v>
       </c>
@@ -2243,7 +1653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" s="4" customFormat="1" spans="1:3">
+    <row r="48" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>96</v>
       </c>
@@ -2254,7 +1664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" s="4" customFormat="1" spans="1:3">
+    <row r="49" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>98</v>
       </c>
@@ -2265,7 +1675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" s="4" customFormat="1" spans="1:3">
+    <row r="50" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>100</v>
       </c>
@@ -2276,7 +1686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" s="4" customFormat="1" spans="1:3">
+    <row r="51" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>102</v>
       </c>
@@ -2287,7 +1697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" s="4" customFormat="1" spans="1:3">
+    <row r="52" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>104</v>
       </c>
@@ -2298,7 +1708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" s="4" customFormat="1" spans="1:3">
+    <row r="53" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>106</v>
       </c>
@@ -2309,7 +1719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" s="4" customFormat="1" spans="1:3">
+    <row r="54" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>108</v>
       </c>
@@ -2320,7 +1730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" s="4" customFormat="1" spans="1:3">
+    <row r="55" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>110</v>
       </c>
@@ -2331,7 +1741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" s="4" customFormat="1" spans="1:3">
+    <row r="56" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>112</v>
       </c>
@@ -2342,7 +1752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" s="4" customFormat="1" spans="1:3">
+    <row r="57" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>114</v>
       </c>
@@ -2353,7 +1763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" s="4" customFormat="1" spans="1:3">
+    <row r="58" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>116</v>
       </c>
@@ -2364,7 +1774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>118</v>
       </c>
@@ -2375,7 +1785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>120</v>
       </c>
@@ -2386,7 +1796,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>123</v>
       </c>
@@ -2397,7 +1807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>125</v>
       </c>
@@ -2408,7 +1818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>127</v>
       </c>
@@ -2419,7 +1829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>129</v>
       </c>
@@ -2430,7 +1840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>131</v>
       </c>
@@ -2441,7 +1851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>133</v>
       </c>
@@ -2452,7 +1862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>135</v>
       </c>
@@ -2463,7 +1873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>137</v>
       </c>
@@ -2474,7 +1884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>139</v>
       </c>
@@ -2485,7 +1895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>141</v>
       </c>
@@ -2496,7 +1906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>143</v>
       </c>
@@ -2507,7 +1917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>145</v>
       </c>
@@ -2518,7 +1928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>147</v>
       </c>
@@ -2529,7 +1939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>149</v>
       </c>
@@ -2540,7 +1950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>151</v>
       </c>
@@ -2551,7 +1961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>153</v>
       </c>
@@ -2562,7 +1972,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>155</v>
       </c>
@@ -2573,7 +1983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
         <v>157</v>
       </c>
@@ -2584,7 +1994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" ht="20.25" customHeight="1" spans="1:3">
+    <row r="79" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
         <v>159</v>
       </c>
@@ -2595,7 +2005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>161</v>
       </c>
@@ -2606,7 +2016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>163</v>
       </c>
@@ -2617,7 +2027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>165</v>
       </c>
@@ -2628,7 +2038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>167</v>
       </c>
@@ -2639,7 +2049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>169</v>
       </c>
@@ -2650,7 +2060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>171</v>
       </c>
@@ -2661,7 +2071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>173</v>
       </c>
@@ -2672,7 +2082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
         <v>175</v>
       </c>
@@ -2683,7 +2093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>177</v>
       </c>
@@ -2694,7 +2104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>179</v>
       </c>
@@ -2705,7 +2115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
         <v>181</v>
       </c>
@@ -2716,7 +2126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" s="2" customFormat="1" spans="1:3">
+    <row r="91" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>183</v>
       </c>
@@ -2727,7 +2137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
         <v>185</v>
       </c>
@@ -2738,7 +2148,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
         <v>187</v>
       </c>
@@ -2749,7 +2159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>189</v>
       </c>
@@ -2760,7 +2170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>191</v>
       </c>
@@ -2771,7 +2181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>193</v>
       </c>
@@ -2782,7 +2192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>195</v>
       </c>
@@ -2793,7 +2203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>197</v>
       </c>
@@ -2804,7 +2214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>199</v>
       </c>
@@ -2815,7 +2225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>201</v>
       </c>
@@ -2826,7 +2236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>203</v>
       </c>
@@ -2837,7 +2247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>205</v>
       </c>
@@ -2848,7 +2258,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>207</v>
       </c>
@@ -2859,7 +2269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>209</v>
       </c>
@@ -2870,7 +2280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>211</v>
       </c>
@@ -2881,7 +2291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>213</v>
       </c>
@@ -2892,7 +2302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>215</v>
       </c>
@@ -2903,7 +2313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>217</v>
       </c>
@@ -2915,32 +2325,30 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C108" etc:filterBottomFollowUsedRange="0">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:C108" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="56.3333333333333" customWidth="1"/>
-    <col min="3" max="4" width="8.58333333333333"/>
+    <col min="1" max="1" width="27.375" customWidth="1"/>
+    <col min="2" max="2" width="56.375" customWidth="1"/>
+    <col min="3" max="4" width="8.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2954,12 +2362,12 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>222</v>
+      <c r="B2" s="11" t="s">
+        <v>225</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2968,12 +2376,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>223</v>
+      <c r="B3" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2982,26 +2390,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3010,12 +2418,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>72</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -3024,12 +2432,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -3039,7 +2447,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Data_update/config_path/data_update_path_config.xlsx
+++ b/Data_update/config_path/data_update_path_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_new1\Data_update\config_path\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE75889-0951-417F-8AA2-BF7F8AAD53D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38A40D4-A4B0-4481-B2D0-CF13C3FCA187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sub_folder" sheetId="2" r:id="rId1"/>
@@ -714,15 +714,15 @@
     <t>OneDrive</t>
   </si>
   <si>
+    <t>Portfolio_new</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>Data_Original</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Data_prepared_new</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Portfolio_new</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -730,7 +730,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -789,14 +789,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -819,7 +811,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -835,7 +827,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1126,14 +1117,14 @@
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="27.08203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="49.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1144,7 +1135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1155,7 +1146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1166,7 +1157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="2" customFormat="1">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -1177,7 +1168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" s="2" customFormat="1">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -1188,7 +1179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" s="2" customFormat="1">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1199,7 +1190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" s="2" customFormat="1">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -1210,7 +1201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" s="2" customFormat="1">
       <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
@@ -1221,7 +1212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" s="2" customFormat="1">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
@@ -1232,7 +1223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" s="2" customFormat="1">
       <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
@@ -1243,7 +1234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" s="2" customFormat="1">
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
@@ -1254,7 +1245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
@@ -1265,7 +1256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -1276,7 +1267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
@@ -1287,7 +1278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="6" t="s">
         <v>31</v>
       </c>
@@ -1298,7 +1289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" s="2" customFormat="1">
       <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
@@ -1309,7 +1300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="2" customFormat="1">
       <c r="A17" s="7" t="s">
         <v>35</v>
       </c>
@@ -1320,7 +1311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="3" customFormat="1">
       <c r="A18" s="6" t="s">
         <v>37</v>
       </c>
@@ -1334,7 +1325,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="2" customFormat="1">
       <c r="A19" s="6" t="s">
         <v>40</v>
       </c>
@@ -1345,7 +1336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="2" customFormat="1">
       <c r="A20" s="6" t="s">
         <v>42</v>
       </c>
@@ -1356,7 +1347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
         <v>44</v>
       </c>
@@ -1367,7 +1358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="2" customFormat="1">
       <c r="A22" s="6" t="s">
         <v>46</v>
       </c>
@@ -1378,7 +1369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="2" customFormat="1">
       <c r="A23" s="6" t="s">
         <v>48</v>
       </c>
@@ -1389,7 +1380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="6" t="s">
         <v>50</v>
       </c>
@@ -1400,7 +1391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="2" customFormat="1">
       <c r="A25" s="6" t="s">
         <v>52</v>
       </c>
@@ -1411,7 +1402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" s="2" customFormat="1">
       <c r="A26" s="6" t="s">
         <v>54</v>
       </c>
@@ -1422,7 +1413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="6" t="s">
         <v>56</v>
       </c>
@@ -1433,7 +1424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="6" t="s">
         <v>58</v>
       </c>
@@ -1444,7 +1435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="6" t="s">
         <v>60</v>
       </c>
@@ -1455,7 +1446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="6" t="s">
         <v>62</v>
       </c>
@@ -1466,7 +1457,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="6" t="s">
         <v>65</v>
       </c>
@@ -1477,7 +1468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="6" t="s">
         <v>67</v>
       </c>
@@ -1488,7 +1479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="6" t="s">
         <v>69</v>
       </c>
@@ -1499,7 +1490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="6" t="s">
         <v>70</v>
       </c>
@@ -1510,7 +1501,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="6" t="s">
         <v>73</v>
       </c>
@@ -1521,7 +1512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="6" t="s">
         <v>75</v>
       </c>
@@ -1532,7 +1523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="8" t="s">
         <v>77</v>
       </c>
@@ -1543,7 +1534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" s="2" customFormat="1">
       <c r="A38" s="8" t="s">
         <v>78</v>
       </c>
@@ -1554,7 +1545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="5" t="s">
         <v>79</v>
       </c>
@@ -1565,7 +1556,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" s="2" customFormat="1">
       <c r="A40" s="5" t="s">
         <v>81</v>
       </c>
@@ -1576,7 +1567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" s="2" customFormat="1">
       <c r="A41" s="5" t="s">
         <v>83</v>
       </c>
@@ -1587,7 +1578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="5" t="s">
         <v>85</v>
       </c>
@@ -1598,7 +1589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" s="4" customFormat="1">
       <c r="A43" s="8" t="s">
         <v>86</v>
       </c>
@@ -1609,7 +1600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" s="4" customFormat="1">
       <c r="A44" s="8" t="s">
         <v>88</v>
       </c>
@@ -1620,7 +1611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" s="4" customFormat="1">
       <c r="A45" s="8" t="s">
         <v>90</v>
       </c>
@@ -1631,7 +1622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" s="4" customFormat="1">
       <c r="A46" s="8" t="s">
         <v>92</v>
       </c>
@@ -1642,7 +1633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" s="4" customFormat="1">
       <c r="A47" s="8" t="s">
         <v>94</v>
       </c>
@@ -1653,7 +1644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" s="4" customFormat="1">
       <c r="A48" s="8" t="s">
         <v>96</v>
       </c>
@@ -1664,7 +1655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" s="4" customFormat="1">
       <c r="A49" s="8" t="s">
         <v>98</v>
       </c>
@@ -1675,7 +1666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" s="4" customFormat="1">
       <c r="A50" s="8" t="s">
         <v>100</v>
       </c>
@@ -1686,7 +1677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" s="4" customFormat="1">
       <c r="A51" s="8" t="s">
         <v>102</v>
       </c>
@@ -1697,7 +1688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" s="4" customFormat="1">
       <c r="A52" s="8" t="s">
         <v>104</v>
       </c>
@@ -1708,7 +1699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" s="4" customFormat="1">
       <c r="A53" s="8" t="s">
         <v>106</v>
       </c>
@@ -1719,7 +1710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" s="4" customFormat="1">
       <c r="A54" s="8" t="s">
         <v>108</v>
       </c>
@@ -1730,7 +1721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" s="4" customFormat="1">
       <c r="A55" s="8" t="s">
         <v>110</v>
       </c>
@@ -1741,7 +1732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" s="4" customFormat="1">
       <c r="A56" s="8" t="s">
         <v>112</v>
       </c>
@@ -1752,7 +1743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" s="4" customFormat="1">
       <c r="A57" s="8" t="s">
         <v>114</v>
       </c>
@@ -1763,7 +1754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" s="4" customFormat="1">
       <c r="A58" s="8" t="s">
         <v>116</v>
       </c>
@@ -1774,7 +1765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" s="5" t="s">
         <v>118</v>
       </c>
@@ -1785,7 +1776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" s="5" t="s">
         <v>120</v>
       </c>
@@ -1796,7 +1787,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" s="5" t="s">
         <v>123</v>
       </c>
@@ -1807,7 +1798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" s="5" t="s">
         <v>125</v>
       </c>
@@ -1818,7 +1809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" s="5" t="s">
         <v>127</v>
       </c>
@@ -1829,7 +1820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" s="5" t="s">
         <v>129</v>
       </c>
@@ -1840,7 +1831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" s="5" t="s">
         <v>131</v>
       </c>
@@ -1851,7 +1842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" s="5" t="s">
         <v>133</v>
       </c>
@@ -1862,7 +1853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" s="5" t="s">
         <v>135</v>
       </c>
@@ -1873,7 +1864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" s="5" t="s">
         <v>137</v>
       </c>
@@ -1884,7 +1875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" s="5" t="s">
         <v>139</v>
       </c>
@@ -1895,7 +1886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" s="5" t="s">
         <v>141</v>
       </c>
@@ -1906,7 +1897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" s="5" t="s">
         <v>143</v>
       </c>
@@ -1917,7 +1908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" s="5" t="s">
         <v>145</v>
       </c>
@@ -1928,7 +1919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" s="5" t="s">
         <v>147</v>
       </c>
@@ -1939,7 +1930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" s="5" t="s">
         <v>149</v>
       </c>
@@ -1950,7 +1941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" s="6" t="s">
         <v>151</v>
       </c>
@@ -1961,7 +1952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" s="5" t="s">
         <v>153</v>
       </c>
@@ -1972,7 +1963,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" s="5" t="s">
         <v>155</v>
       </c>
@@ -1983,7 +1974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" s="10" t="s">
         <v>157</v>
       </c>
@@ -1994,7 +1985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" ht="20.25" customHeight="1">
       <c r="A79" s="10" t="s">
         <v>159</v>
       </c>
@@ -2005,7 +1996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" s="5" t="s">
         <v>161</v>
       </c>
@@ -2016,7 +2007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" s="5" t="s">
         <v>163</v>
       </c>
@@ -2027,7 +2018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" s="5" t="s">
         <v>165</v>
       </c>
@@ -2038,7 +2029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" s="5" t="s">
         <v>167</v>
       </c>
@@ -2049,7 +2040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" s="5" t="s">
         <v>169</v>
       </c>
@@ -2060,7 +2051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" s="5" t="s">
         <v>171</v>
       </c>
@@ -2071,7 +2062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" s="5" t="s">
         <v>173</v>
       </c>
@@ -2082,7 +2073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87" s="5" t="s">
         <v>175</v>
       </c>
@@ -2093,7 +2084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88" s="5" t="s">
         <v>177</v>
       </c>
@@ -2104,7 +2095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89" s="5" t="s">
         <v>179</v>
       </c>
@@ -2115,7 +2106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90" s="5" t="s">
         <v>181</v>
       </c>
@@ -2126,7 +2117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" s="2" customFormat="1">
       <c r="A91" s="2" t="s">
         <v>183</v>
       </c>
@@ -2137,7 +2128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92" s="10" t="s">
         <v>185</v>
       </c>
@@ -2148,7 +2139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93" s="10" t="s">
         <v>187</v>
       </c>
@@ -2159,7 +2150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94" s="5" t="s">
         <v>189</v>
       </c>
@@ -2170,7 +2161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95" s="5" t="s">
         <v>191</v>
       </c>
@@ -2181,7 +2172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96" s="5" t="s">
         <v>193</v>
       </c>
@@ -2192,7 +2183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97" s="5" t="s">
         <v>195</v>
       </c>
@@ -2203,7 +2194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98" s="5" t="s">
         <v>197</v>
       </c>
@@ -2214,7 +2205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="A99" s="5" t="s">
         <v>199</v>
       </c>
@@ -2225,7 +2216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100" s="5" t="s">
         <v>201</v>
       </c>
@@ -2236,7 +2227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101" s="5" t="s">
         <v>203</v>
       </c>
@@ -2247,7 +2238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="A102" s="5" t="s">
         <v>205</v>
       </c>
@@ -2258,7 +2249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103" s="5" t="s">
         <v>207</v>
       </c>
@@ -2269,7 +2260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104" s="5" t="s">
         <v>209</v>
       </c>
@@ -2280,7 +2271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105" s="5" t="s">
         <v>211</v>
       </c>
@@ -2291,7 +2282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3">
       <c r="A106" s="5" t="s">
         <v>213</v>
       </c>
@@ -2302,7 +2293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3">
       <c r="A107" s="5" t="s">
         <v>215</v>
       </c>
@@ -2313,7 +2304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3">
       <c r="A108" s="5" t="s">
         <v>217</v>
       </c>
@@ -2338,17 +2329,17 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="27.375" customWidth="1"/>
-    <col min="2" max="2" width="56.375" customWidth="1"/>
-    <col min="3" max="4" width="8.625"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="56.33203125" customWidth="1"/>
+    <col min="3" max="4" width="8.58203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2362,12 +2353,12 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>225</v>
+      <c r="B2" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2376,12 +2367,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2390,7 +2381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2404,7 +2395,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -2418,12 +2409,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>72</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2432,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>122</v>
       </c>

--- a/Data_update/config_path/data_update_path_config.xlsx
+++ b/Data_update/config_path/data_update_path_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_new1\Data_update\config_path\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_new2\Data_update\config_path\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38A40D4-A4B0-4481-B2D0-CF13C3FCA187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C19A90-2060-4A0B-B35E-661E675F00FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sub_folder" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="230">
   <si>
     <t>data_type</t>
   </si>
@@ -723,6 +723,14 @@
   </si>
   <si>
     <t>Data_prepared_new</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>output_portfolio_info</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score_config\mode_dictionary_ori.xlsx</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -730,7 +738,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1111,20 +1119,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.08203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="27.125" style="5" customWidth="1"/>
     <col min="2" max="2" width="49.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1135,7 +1143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1146,7 +1154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1157,7 +1165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="2" customFormat="1">
+    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -1168,7 +1176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="2" customFormat="1">
+    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -1179,7 +1187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="2" customFormat="1">
+    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1190,7 +1198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="2" customFormat="1">
+    <row r="7" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -1201,7 +1209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="2" customFormat="1">
+    <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
@@ -1212,7 +1220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="2" customFormat="1">
+    <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
@@ -1223,7 +1231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="2" customFormat="1">
+    <row r="10" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
@@ -1234,7 +1242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="2" customFormat="1">
+    <row r="11" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
@@ -1245,7 +1253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
@@ -1256,7 +1264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -1267,7 +1275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
@@ -1278,7 +1286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>31</v>
       </c>
@@ -1289,7 +1297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="2" customFormat="1">
+    <row r="16" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
@@ -1300,7 +1308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1">
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>35</v>
       </c>
@@ -1311,7 +1319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="3" customFormat="1">
+    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>37</v>
       </c>
@@ -1325,7 +1333,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="2" customFormat="1">
+    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>40</v>
       </c>
@@ -1336,7 +1344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1">
+    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>42</v>
       </c>
@@ -1347,7 +1355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>44</v>
       </c>
@@ -1358,7 +1366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1">
+    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>46</v>
       </c>
@@ -1369,7 +1377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="2" customFormat="1">
+    <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>48</v>
       </c>
@@ -1380,7 +1388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>50</v>
       </c>
@@ -1391,7 +1399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="2" customFormat="1">
+    <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>52</v>
       </c>
@@ -1402,7 +1410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="2" customFormat="1">
+    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>54</v>
       </c>
@@ -1413,7 +1421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>56</v>
       </c>
@@ -1424,7 +1432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>58</v>
       </c>
@@ -1435,7 +1443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>60</v>
       </c>
@@ -1446,7 +1454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>62</v>
       </c>
@@ -1457,7 +1465,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>65</v>
       </c>
@@ -1468,7 +1476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>67</v>
       </c>
@@ -1479,7 +1487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>69</v>
       </c>
@@ -1490,7 +1498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>70</v>
       </c>
@@ -1501,7 +1509,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>73</v>
       </c>
@@ -1512,7 +1520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>75</v>
       </c>
@@ -1523,7 +1531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>77</v>
       </c>
@@ -1534,7 +1542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="2" customFormat="1">
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>78</v>
       </c>
@@ -1545,7 +1553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>79</v>
       </c>
@@ -1556,7 +1564,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="2" customFormat="1">
+    <row r="40" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>81</v>
       </c>
@@ -1567,7 +1575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="2" customFormat="1">
+    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>83</v>
       </c>
@@ -1578,7 +1586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>85</v>
       </c>
@@ -1589,7 +1597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="4" customFormat="1">
+    <row r="43" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>86</v>
       </c>
@@ -1600,7 +1608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="4" customFormat="1">
+    <row r="44" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>88</v>
       </c>
@@ -1611,7 +1619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="4" customFormat="1">
+    <row r="45" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>90</v>
       </c>
@@ -1622,7 +1630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="4" customFormat="1">
+    <row r="46" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>92</v>
       </c>
@@ -1633,7 +1641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="4" customFormat="1">
+    <row r="47" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>94</v>
       </c>
@@ -1644,7 +1652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="4" customFormat="1">
+    <row r="48" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>96</v>
       </c>
@@ -1655,7 +1663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="4" customFormat="1">
+    <row r="49" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>98</v>
       </c>
@@ -1666,7 +1674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="4" customFormat="1">
+    <row r="50" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>100</v>
       </c>
@@ -1677,7 +1685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="4" customFormat="1">
+    <row r="51" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>102</v>
       </c>
@@ -1688,7 +1696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="4" customFormat="1">
+    <row r="52" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>104</v>
       </c>
@@ -1699,7 +1707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="4" customFormat="1">
+    <row r="53" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>106</v>
       </c>
@@ -1710,7 +1718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="4" customFormat="1">
+    <row r="54" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>108</v>
       </c>
@@ -1721,7 +1729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="4" customFormat="1">
+    <row r="55" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>110</v>
       </c>
@@ -1732,7 +1740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="4" customFormat="1">
+    <row r="56" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>112</v>
       </c>
@@ -1743,7 +1751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="4" customFormat="1">
+    <row r="57" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>114</v>
       </c>
@@ -1754,7 +1762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="4" customFormat="1">
+    <row r="58" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>116</v>
       </c>
@@ -1765,7 +1773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>118</v>
       </c>
@@ -1776,7 +1784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>120</v>
       </c>
@@ -1787,7 +1795,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>123</v>
       </c>
@@ -1798,7 +1806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>125</v>
       </c>
@@ -1809,7 +1817,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>127</v>
       </c>
@@ -1820,7 +1828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>129</v>
       </c>
@@ -1831,7 +1839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>131</v>
       </c>
@@ -1842,7 +1850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>133</v>
       </c>
@@ -1853,7 +1861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>135</v>
       </c>
@@ -1864,7 +1872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>137</v>
       </c>
@@ -1875,7 +1883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>139</v>
       </c>
@@ -1886,7 +1894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>141</v>
       </c>
@@ -1897,7 +1905,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>143</v>
       </c>
@@ -1908,7 +1916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>145</v>
       </c>
@@ -1919,7 +1927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>147</v>
       </c>
@@ -1930,7 +1938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>149</v>
       </c>
@@ -1941,7 +1949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>151</v>
       </c>
@@ -1952,7 +1960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>153</v>
       </c>
@@ -1963,7 +1971,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>155</v>
       </c>
@@ -1974,7 +1982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
         <v>157</v>
       </c>
@@ -1985,7 +1993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="20.25" customHeight="1">
+    <row r="79" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
         <v>159</v>
       </c>
@@ -1996,7 +2004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>161</v>
       </c>
@@ -2007,7 +2015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>163</v>
       </c>
@@ -2018,7 +2026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>165</v>
       </c>
@@ -2029,7 +2037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>167</v>
       </c>
@@ -2040,7 +2048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>169</v>
       </c>
@@ -2051,7 +2059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>171</v>
       </c>
@@ -2062,7 +2070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>173</v>
       </c>
@@ -2073,7 +2081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
         <v>175</v>
       </c>
@@ -2084,7 +2092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>177</v>
       </c>
@@ -2095,7 +2103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>179</v>
       </c>
@@ -2106,7 +2114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
         <v>181</v>
       </c>
@@ -2117,7 +2125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:3" s="2" customFormat="1">
+    <row r="91" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>183</v>
       </c>
@@ -2128,7 +2136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
         <v>185</v>
       </c>
@@ -2139,7 +2147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
         <v>187</v>
       </c>
@@ -2150,7 +2158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>189</v>
       </c>
@@ -2161,7 +2169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>191</v>
       </c>
@@ -2172,7 +2180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>193</v>
       </c>
@@ -2183,7 +2191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>195</v>
       </c>
@@ -2194,7 +2202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>197</v>
       </c>
@@ -2205,7 +2213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>199</v>
       </c>
@@ -2216,7 +2224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>201</v>
       </c>
@@ -2227,7 +2235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>203</v>
       </c>
@@ -2238,7 +2246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>205</v>
       </c>
@@ -2249,7 +2257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>207</v>
       </c>
@@ -2260,7 +2268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>209</v>
       </c>
@@ -2271,7 +2279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>211</v>
       </c>
@@ -2282,7 +2290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>213</v>
       </c>
@@ -2293,7 +2301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>215</v>
       </c>
@@ -2304,7 +2312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>217</v>
       </c>
@@ -2313,6 +2321,17 @@
       </c>
       <c r="C108" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C109" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2328,18 +2347,18 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="56.33203125" customWidth="1"/>
-    <col min="3" max="4" width="8.58203125"/>
+    <col min="1" max="1" width="27.375" customWidth="1"/>
+    <col min="2" max="2" width="56.375" customWidth="1"/>
+    <col min="3" max="4" width="8.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2353,7 +2372,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2367,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2381,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2395,7 +2414,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -2409,7 +2428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -2423,7 +2442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>122</v>
       </c>

--- a/Data_update/config_path/data_update_path_config.xlsx
+++ b/Data_update/config_path/data_update_path_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_new2\Data_update\config_path\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_new\Data_update\config_path\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C19A90-2060-4A0B-B35E-661E675F00FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2BB83F-EFC2-4013-820F-2AB0B1354593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sub_folder" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="229">
   <si>
     <t>data_type</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Score_config\config_score_mode.xlsx</t>
   </si>
   <si>
-    <t>config_folder_1</t>
-  </si>
-  <si>
     <t>input_wind_stock</t>
   </si>
   <si>
@@ -703,9 +700,6 @@
   </si>
   <si>
     <t>MPON</t>
-  </si>
-  <si>
-    <t>config</t>
   </si>
   <si>
     <t>config_project</t>
@@ -730,7 +724,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Score_config\mode_dictionary_ori.xlsx</t>
+    <t>config_folder_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score_config\mode_dictionary.xlsx</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1121,8 +1119,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1173,15 +1171,15 @@
         <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>10</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>5</v>
@@ -1189,10 +1187,10 @@
     </row>
     <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>5</v>
@@ -1200,10 +1198,10 @@
     </row>
     <row r="7" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>5</v>
@@ -1211,10 +1209,10 @@
     </row>
     <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>5</v>
@@ -1222,10 +1220,10 @@
     </row>
     <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>5</v>
@@ -1233,10 +1231,10 @@
     </row>
     <row r="10" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>5</v>
@@ -1244,10 +1242,10 @@
     </row>
     <row r="11" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>5</v>
@@ -1255,10 +1253,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>7</v>
@@ -1266,10 +1264,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>7</v>
@@ -1277,10 +1275,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>7</v>
@@ -1288,10 +1286,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>7</v>
@@ -1299,10 +1297,10 @@
     </row>
     <row r="16" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>7</v>
@@ -1310,10 +1308,10 @@
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>7</v>
@@ -1321,24 +1319,24 @@
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>5</v>
@@ -1346,10 +1344,10 @@
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>5</v>
@@ -1357,10 +1355,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>5</v>
@@ -1368,10 +1366,10 @@
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>5</v>
@@ -1379,10 +1377,10 @@
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>5</v>
@@ -1390,10 +1388,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>5</v>
@@ -1401,10 +1399,10 @@
     </row>
     <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>5</v>
@@ -1412,10 +1410,10 @@
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>5</v>
@@ -1423,10 +1421,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>7</v>
@@ -1434,10 +1432,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>7</v>
@@ -1445,10 +1443,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>7</v>
@@ -1456,21 +1454,21 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>7</v>
@@ -1478,10 +1476,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>7</v>
@@ -1489,10 +1487,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>5</v>
@@ -1500,21 +1498,21 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>7</v>
@@ -1522,10 +1520,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>7</v>
@@ -1533,10 +1531,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>7</v>
@@ -1544,10 +1542,10 @@
     </row>
     <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>5</v>
@@ -1555,32 +1553,32 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="C39" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="C40" s="5" t="s">
-        <v>10</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>7</v>
@@ -1588,10 +1586,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>5</v>
@@ -1599,10 +1597,10 @@
     </row>
     <row r="43" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>5</v>
@@ -1610,10 +1608,10 @@
     </row>
     <row r="44" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>5</v>
@@ -1621,10 +1619,10 @@
     </row>
     <row r="45" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>5</v>
@@ -1632,10 +1630,10 @@
     </row>
     <row r="46" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>7</v>
@@ -1643,10 +1641,10 @@
     </row>
     <row r="47" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>95</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>5</v>
@@ -1654,10 +1652,10 @@
     </row>
     <row r="48" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>97</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>5</v>
@@ -1665,10 +1663,10 @@
     </row>
     <row r="49" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>5</v>
@@ -1676,10 +1674,10 @@
     </row>
     <row r="50" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>101</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>7</v>
@@ -1687,10 +1685,10 @@
     </row>
     <row r="51" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>103</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>5</v>
@@ -1698,10 +1696,10 @@
     </row>
     <row r="52" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>105</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>5</v>
@@ -1709,10 +1707,10 @@
     </row>
     <row r="53" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>7</v>
@@ -1720,10 +1718,10 @@
     </row>
     <row r="54" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>5</v>
@@ -1731,10 +1729,10 @@
     </row>
     <row r="55" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>5</v>
@@ -1742,10 +1740,10 @@
     </row>
     <row r="56" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>5</v>
@@ -1753,10 +1751,10 @@
     </row>
     <row r="57" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>5</v>
@@ -1764,10 +1762,10 @@
     </row>
     <row r="58" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>117</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>5</v>
@@ -1775,10 +1773,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>7</v>
@@ -1786,21 +1784,21 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="C60" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>7</v>
@@ -1808,10 +1806,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>7</v>
@@ -1819,10 +1817,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>7</v>
@@ -1830,10 +1828,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>7</v>
@@ -1841,10 +1839,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>7</v>
@@ -1852,10 +1850,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>7</v>
@@ -1863,10 +1861,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>136</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>7</v>
@@ -1874,10 +1872,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>7</v>
@@ -1885,10 +1883,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>7</v>
@@ -1896,10 +1894,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>7</v>
@@ -1907,10 +1905,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>7</v>
@@ -1918,10 +1916,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>7</v>
@@ -1929,10 +1927,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>7</v>
@@ -1940,10 +1938,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>150</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>7</v>
@@ -1951,10 +1949,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>7</v>
@@ -1962,21 +1960,21 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B76" s="5" t="s">
-        <v>154</v>
-      </c>
       <c r="C76" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>156</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>7</v>
@@ -1984,10 +1982,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" s="10" t="s">
         <v>157</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>158</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>5</v>
@@ -1995,10 +1993,10 @@
     </row>
     <row r="79" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" s="10" t="s">
         <v>159</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>160</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>5</v>
@@ -2006,10 +2004,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>5</v>
@@ -2017,10 +2015,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>164</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>5</v>
@@ -2028,10 +2026,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>166</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>5</v>
@@ -2039,10 +2037,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>168</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>5</v>
@@ -2050,10 +2048,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>5</v>
@@ -2061,10 +2059,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>172</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>5</v>
@@ -2072,10 +2070,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>174</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>5</v>
@@ -2083,10 +2081,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>176</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>5</v>
@@ -2094,10 +2092,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>5</v>
@@ -2105,10 +2103,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>180</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>5</v>
@@ -2116,10 +2114,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>5</v>
@@ -2127,10 +2125,10 @@
     </row>
     <row r="91" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>5</v>
@@ -2138,10 +2136,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B92" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>186</v>
       </c>
       <c r="C92" s="10" t="s">
         <v>7</v>
@@ -2149,10 +2147,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B93" s="10" t="s">
         <v>187</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>188</v>
       </c>
       <c r="C93" s="10" t="s">
         <v>7</v>
@@ -2160,10 +2158,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>190</v>
       </c>
       <c r="C94" s="10" t="s">
         <v>7</v>
@@ -2171,10 +2169,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>192</v>
       </c>
       <c r="C95" s="10" t="s">
         <v>7</v>
@@ -2182,10 +2180,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B96" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>194</v>
       </c>
       <c r="C96" s="10" t="s">
         <v>7</v>
@@ -2193,10 +2191,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="C97" s="10" t="s">
         <v>7</v>
@@ -2204,10 +2202,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>198</v>
       </c>
       <c r="C98" s="10" t="s">
         <v>7</v>
@@ -2215,10 +2213,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>200</v>
       </c>
       <c r="C99" s="10" t="s">
         <v>7</v>
@@ -2226,10 +2224,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>201</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>202</v>
       </c>
       <c r="C100" s="10" t="s">
         <v>7</v>
@@ -2237,10 +2235,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>204</v>
       </c>
       <c r="C101" s="10" t="s">
         <v>7</v>
@@ -2248,10 +2246,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B102" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>206</v>
       </c>
       <c r="C102" s="10" t="s">
         <v>7</v>
@@ -2259,10 +2257,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>208</v>
       </c>
       <c r="C103" s="10" t="s">
         <v>7</v>
@@ -2270,10 +2268,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="C104" s="10" t="s">
         <v>7</v>
@@ -2281,10 +2279,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>212</v>
       </c>
       <c r="C105" s="10" t="s">
         <v>7</v>
@@ -2292,10 +2290,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B106" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>214</v>
       </c>
       <c r="C106" s="10" t="s">
         <v>7</v>
@@ -2303,10 +2301,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B107" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="C107" s="10" t="s">
         <v>7</v>
@@ -2314,24 +2312,24 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B108" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B108" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="C108" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B109" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B109" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="C109" t="s">
-        <v>10</v>
+      <c r="C109" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2345,10 +2343,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2363,13 +2361,13 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" t="s">
         <v>219</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>220</v>
-      </c>
-      <c r="D1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2377,7 +2375,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2391,7 +2389,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2402,57 +2400,43 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D4" t="s">
-        <v>222</v>
+        <v>221</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>225</v>
+        <v>121</v>
+      </c>
+      <c r="B6" t="s">
+        <v>222</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
         <v>0</v>
       </c>
     </row>
